--- a/PDC_REFACTOR/SVM/STE/IPL/PdC IPL.xlsx
+++ b/PDC_REFACTOR/SVM/STE/IPL/PdC IPL.xlsx
@@ -11,7 +11,7 @@
     <sheet name="PdC IPL" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'PdC IPL'!$A$1:$BN$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'PdC IPL'!$A$1:$BN$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="121">
   <si>
     <t xml:space="preserve">N_Affaire</t>
   </si>
@@ -41,6 +41,204 @@
   </si>
   <si>
     <t xml:space="preserve">Commentaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_N_Affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_Intitulé_affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_Entité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_Groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_Compétences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_Commentaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_43983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_44986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC_45261</t>
   </si>
   <si>
     <t xml:space="preserve">10-0153-4</t>
@@ -306,19 +504,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN47"/>
+  <dimension ref="A1:BN48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="7" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="67" style="0" width="10.53"/>
   </cols>
@@ -539,310 +735,313 @@
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AV2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AW2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AX2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="0" t="n">
-        <v>0</v>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="0" t="n">
         <v>0.5</v>
@@ -919,55 +1118,55 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
@@ -988,79 +1187,79 @@
         <v>1</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW4" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX4" s="0" t="n">
         <v>0</v>
@@ -1116,91 +1315,91 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>0</v>
@@ -1313,163 +1512,163 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>0</v>
@@ -1510,163 +1709,163 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AI7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AK7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AL7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AM7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AN7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AP7" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>0</v>
@@ -1707,67 +1906,67 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>1</v>
@@ -1794,58 +1993,58 @@
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="0" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="0" t="n">
         <v>0.5</v>
@@ -1904,163 +2103,163 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AV9" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BB9" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>0</v>
@@ -2101,360 +2300,360 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>0.12</v>
-      </c>
       <c r="S11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AM11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AN11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AO11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AQ11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AR11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AS11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AT11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AU11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AY11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="AZ11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="BA11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="BB11" s="0" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>0</v>
@@ -2495,163 +2694,163 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AH12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AJ12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AK12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AL12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AM12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AN12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AV12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AW12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AX12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AY12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AZ12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BA12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BB12" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>0</v>
@@ -2692,109 +2891,109 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>0</v>
@@ -2889,109 +3088,109 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>0.2</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="AK14" s="0" t="n">
         <v>0</v>
@@ -3086,91 +3285,91 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>0</v>
@@ -3283,28 +3482,28 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -3480,28 +3679,28 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -3677,360 +3876,360 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AO18" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AP18" s="0" t="n">
+      <c r="AP19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AQ18" s="0" t="n">
+      <c r="AQ19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AR18" s="0" t="n">
+      <c r="AR19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AS18" s="0" t="n">
+      <c r="AS19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AT18" s="0" t="n">
+      <c r="AT19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AU18" s="0" t="n">
+      <c r="AU19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AV18" s="0" t="n">
+      <c r="AV19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AW18" s="0" t="n">
+      <c r="AW19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AX18" s="0" t="n">
+      <c r="AX19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AY18" s="0" t="n">
+      <c r="AY19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AZ18" s="0" t="n">
+      <c r="AZ19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BA18" s="0" t="n">
+      <c r="BA19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="BB18" s="0" t="n">
+      <c r="BB19" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="BC18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB19" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="BC19" s="0" t="n">
         <v>0</v>
@@ -4071,163 +4270,163 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="AP20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="AQ20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="AR20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="AS20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="AT20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AU20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AV20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AW20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AX20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AY20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AZ20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="BA20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="BB20" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="AH20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="BC20" s="0" t="n">
         <v>0</v>
@@ -4268,22 +4467,22 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -4319,67 +4518,67 @@
         <v>1</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" s="0" t="n">
         <v>1</v>
@@ -4463,27 +4662,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -4498,31 +4697,31 @@
         <v>1</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>1</v>
@@ -4546,25 +4745,25 @@
         <v>1</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="0" t="n">
         <v>1</v>
@@ -4662,19 +4861,19 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0</v>
@@ -4683,106 +4882,106 @@
         <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI23" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="0" t="n">
         <v>1</v>
@@ -4859,163 +5058,163 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.141328722465764</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0" t="n">
-        <v>0.059792921043208</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="0" t="n">
-        <v>0.217646232597277</v>
+        <v>1</v>
       </c>
       <c r="AV24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="0" t="n">
-        <v>0.0518205315707802</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="0" t="n">
         <v>0</v>
@@ -5056,160 +5255,160 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="V25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="Z25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="AA25" s="0" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="AB25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AE25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AG25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AH25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AI25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AJ25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AK25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AL25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AM25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AN25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AO25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AP25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AQ25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AR25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AS25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AT25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AU25" s="0" t="n">
-        <v>0.0328645994491696</v>
+        <v>0.217646232597277</v>
       </c>
       <c r="AV25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="AW25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="AX25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="AY25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="AZ25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="BA25" s="0" t="n">
-        <v>0.00782490463075467</v>
+        <v>0.0518205315707802</v>
       </c>
       <c r="BB25" s="0" t="n">
         <v>0</v>
@@ -5253,160 +5452,160 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="AA26" s="0" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="AB26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AE26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AG26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AH26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AI26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AJ26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AK26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AL26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AM26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AN26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AO26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AP26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AQ26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AR26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AS26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AT26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AU26" s="0" t="n">
-        <v>0.0184755573773299</v>
+        <v>0.0328645994491696</v>
       </c>
       <c r="AV26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="AW26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="AX26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="AY26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="AZ26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="BA26" s="0" t="n">
-        <v>0.00439894223269759</v>
+        <v>0.00782490463075467</v>
       </c>
       <c r="BB26" s="0" t="n">
         <v>0</v>
@@ -5450,163 +5649,163 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="AA27" s="0" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="AB27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AC27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AD27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AE27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AG27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AH27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AI27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AJ27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AK27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AL27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AM27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AN27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AO27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AP27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AQ27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AR27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AS27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AT27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AU27" s="0" t="n">
-        <v>1</v>
+        <v>0.0184755573773299</v>
       </c>
       <c r="AV27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="AW27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="AX27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="AY27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="AZ27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="BA27" s="0" t="n">
-        <v>1</v>
+        <v>0.00439894223269759</v>
       </c>
       <c r="BB27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="0" t="n">
         <v>0</v>
@@ -5647,163 +5846,163 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AJ28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AO28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AR28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="0" t="n">
         <v>0</v>
@@ -5842,332 +6041,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AE31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AK31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AL31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AM31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AN31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AO31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AP31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AQ31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR31" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN31" s="0" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BA29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB29" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AA32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AB32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AE32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AG32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AH32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AI32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AJ32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AK32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AL32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AM32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AN32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AO32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AP32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AQ32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AR32" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AS32" s="0" t="n">
         <v>0</v>
@@ -6238,658 +6437,658 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AJ33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AK33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AL33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR33" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="R34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="T34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="U34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="V34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="W34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="X34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Y34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="Z34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AA34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AB33" s="0" t="n">
+      <c r="AB34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AC34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AD34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AE34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AF34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AG34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AH34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AI34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AJ34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AK34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AL33" s="0" t="n">
+      <c r="AL34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AM34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AN34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AO33" s="0" t="n">
+      <c r="AO34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AP33" s="0" t="n">
+      <c r="AP34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ33" s="0" t="n">
+      <c r="AQ34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AR33" s="0" t="n">
+      <c r="AR34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AS33" s="0" t="n">
+      <c r="AS34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AT33" s="0" t="n">
+      <c r="AT34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AU33" s="0" t="n">
+      <c r="AU34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AV33" s="0" t="n">
+      <c r="AV34" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="AW33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AX33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AY33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AZ33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BA33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BB33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BC33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN33" s="0" t="n">
+      <c r="AW34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AX34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AJ34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AM34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AN34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AO34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AP34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AQ34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AR34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AT34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AU34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AV34" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AW34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN34" s="0" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AV35" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="0" t="n">
+    <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N37" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O37" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P37" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S36" s="0" t="n">
+      <c r="Q37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="U37" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="V36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AE36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>0.3</v>
-      </c>
       <c r="V37" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>0.5</v>
@@ -6916,13 +7115,13 @@
         <v>0.5</v>
       </c>
       <c r="AE37" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0" t="n">
         <v>0</v>
@@ -7026,55 +7225,55 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>0.3</v>
@@ -7086,7 +7285,7 @@
         <v>0.3</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W38" s="0" t="n">
         <v>0.5</v>
@@ -7113,13 +7312,13 @@
         <v>0.5</v>
       </c>
       <c r="AE38" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG38" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH38" s="0" t="n">
         <v>0</v>
@@ -7223,19 +7422,19 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>0.5</v>
@@ -7247,22 +7446,22 @@
         <v>0.5</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0.3</v>
@@ -7271,25 +7470,25 @@
         <v>0.3</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V39" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>0.5</v>
@@ -7420,46 +7619,46 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0.3</v>
@@ -7468,240 +7667,240 @@
         <v>0.3</v>
       </c>
       <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="U40" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="W40" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="X40" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y40" s="0" t="n">
+      <c r="N41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="Z40" s="0" t="n">
+      <c r="O41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AA40" s="0" t="n">
+      <c r="P41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB40" s="0" t="n">
+      <c r="Q41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AC40" s="0" t="n">
+      <c r="R41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD40" s="0" t="n">
+      <c r="S41" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AE40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="T41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="V41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AA41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AB41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AC41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD41" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AE41" s="0" t="n">
         <v>0</v>
@@ -7814,91 +8013,91 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD42" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE42" s="0" t="n">
         <v>0</v>
@@ -8011,19 +8210,19 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0.3</v>
@@ -8208,360 +8407,360 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="H45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="I45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="J45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="L45" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="P45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q44" s="0" t="n">
+      <c r="Q45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="R45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="S45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="U44" s="0" t="n">
+      <c r="U45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="V45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="W44" s="0" t="n">
+      <c r="W45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="X44" s="0" t="n">
+      <c r="X45" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF44" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG44" s="0" t="n">
+      <c r="Y45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AH44" s="0" t="n">
+      <c r="AH45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AI44" s="0" t="n">
+      <c r="AI45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AJ44" s="0" t="n">
+      <c r="AJ45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AK44" s="0" t="n">
+      <c r="AK45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AL44" s="0" t="n">
+      <c r="AL45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AM44" s="0" t="n">
+      <c r="AM45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AN44" s="0" t="n">
+      <c r="AN45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AO44" s="0" t="n">
+      <c r="AO45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AP44" s="0" t="n">
+      <c r="AP45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AQ44" s="0" t="n">
+      <c r="AQ45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AR44" s="0" t="n">
+      <c r="AR45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AS44" s="0" t="n">
+      <c r="AS45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AT44" s="0" t="n">
+      <c r="AT45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AU44" s="0" t="n">
+      <c r="AU45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AV44" s="0" t="n">
+      <c r="AV45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AW44" s="0" t="n">
+      <c r="AW45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AX44" s="0" t="n">
+      <c r="AX45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AY44" s="0" t="n">
+      <c r="AY45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="AZ44" s="0" t="n">
+      <c r="AZ45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="BA44" s="0" t="n">
+      <c r="BA45" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="BB44" s="0" t="n">
+      <c r="BB45" s="0" t="n">
         <v>0.3</v>
-      </c>
-      <c r="BC44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="BC45" s="0" t="n">
         <v>0</v>
@@ -8602,118 +8801,118 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="0" t="n">
         <v>0</v>
@@ -8799,118 +8998,118 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z47" s="0" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AI47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AJ47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM47" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AN47" s="0" t="n">
         <v>0</v>
@@ -8991,11 +9190,208 @@
         <v>0</v>
       </c>
       <c r="BN47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN47"/>
+  <autoFilter ref="A1:BN48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
